--- a/Question/Languages/C#/C# _I.xlsx
+++ b/Question/Languages/C#/C# _I.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25740488-A98A-4C80-893F-77BB0A1C48DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A383B8ED-E61A-4A0B-918C-FEF3DE8E8A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Q</t>
   </si>
@@ -33,64 +33,58 @@
     <t>A</t>
   </si>
   <si>
-    <t>What is JVM</t>
-  </si>
-  <si>
-    <t>Java Virtual Machine (JVM) is a specification that provides runtime environment in which java bytecode(.class files) can be executed.</t>
-  </si>
-  <si>
-    <t>What is Classloader in Java?</t>
-  </si>
-  <si>
-    <t>The Java ClassLoader is a part of the Java Runtime Environment that dynamically loads Java classes into the Java Virtual Machine</t>
-  </si>
-  <si>
-    <t>How can constructor chaining be done using this keyword?</t>
-  </si>
-  <si>
-    <t>Java constructor chaining is a method of calling one constructor with the help of another while considering the present object</t>
-  </si>
-  <si>
-    <t>Can you have virtual functions in Java?</t>
-  </si>
-  <si>
-    <t>In Java, all non-static methods are by default virtual functions. Only methods marked with the keyword final, which cannot be overridden, along with private methods, which are not inherited, are non-virtual</t>
-  </si>
-  <si>
-    <t>What is covariant return type?</t>
-  </si>
-  <si>
-    <t>It is possible to have different return type for a overriding method in child class, but child’s return type should be sub-type of parent’s return type. Overriding method becomes variant with respect to return type. The covariant return type specifies that the return type may vary in the same direction as the subclass.</t>
-  </si>
-  <si>
-    <t>Can there be an abstract method without an abstract class?</t>
-  </si>
-  <si>
-    <t>Yes. because methods in an interface are also abstract. so the interface can be use to declare abstract method.</t>
-  </si>
-  <si>
-    <t>can we use private or protected member variables in an interface?</t>
-  </si>
-  <si>
-    <t>The java compiler adds public and abstract keywords before the interface method and public, static and final keyword before data members automatically</t>
-  </si>
-  <si>
-    <t>Can you access non static variable in static context?</t>
-  </si>
-  <si>
-    <t>No, non-static variable cannot be referenced in a static context directly one needs to use object.</t>
-  </si>
-  <si>
-    <t>What is the purpose of the Runtime class?</t>
-  </si>
-  <si>
-    <t>The purpose of the Runtime class is to provide access to the Java runtime system. The runtime information like memory availability, invoking the garbage collector</t>
-  </si>
-  <si>
-    <t>What is the purpose of the System class?</t>
-  </si>
-  <si>
-    <t>The purpose of the System class is to provide access to system resources. It contains accessibility to standard input, standart output, error output streams, current time in millis, terminating the application</t>
+    <t>CLR handles program execution for various languages including C#. The architecture of CLR handles memory management, garbage collection, security handling</t>
+  </si>
+  <si>
+    <t>What is Common Language Runtime (CLR)</t>
+  </si>
+  <si>
+    <t>What is garbage collection in C#?</t>
+  </si>
+  <si>
+    <t>Garbage collection is the process of freeing up memory that is captured by unwanted objects. When you create a class object, automatically some memory space is allocated to the object in the heap memory. Now, after you perform all the actions on the object, the memory space occupied by the object becomes waste. It is necessary to free up memory</t>
+  </si>
+  <si>
+    <t>What is a managed  code?</t>
+  </si>
+  <si>
+    <t>What is an unmanaged code?</t>
+  </si>
+  <si>
+    <t>lets you run the code on a managed CLR runtime environment in the .NET framework.  Managed code runs on the managed runtime environment than the operating system itself</t>
+  </si>
+  <si>
+    <t>Unmanaged code is when the code doesn’t run on CLR, it is an unmanaged code that works outside the .NET framework. They don’t provide services of the high-level languages and therefore, run without them. Such an example is C++</t>
+  </si>
+  <si>
+    <t>What are extension methods in C#?</t>
+  </si>
+  <si>
+    <t>Extension methods help to add new methods to the existing ones. The methods that are added are static. At times, when you want to add methods to an existing class but don’t perceive the right to modify that class or don’t hold the rights, you can create a new static class containing the new methods. Once the extended methods are declared, bind this class with the existing one and see the methods will be added to the existing one.</t>
+  </si>
+  <si>
+    <t>What are Generics in C#?</t>
+  </si>
+  <si>
+    <t>In C# collections, defining any kind of object is termed okay which compromises C#’s basic rule of type-safety. Therefore, generics were included to type-safe the code by allowing re-use of the data processing algorithms. Generics in C# mean not linked to any specific data type. Generics reduce the load of using boxing, unboxing, and typecasting objects. Generics are always defined inside angular brackets &lt;&gt;. To create a generic class, this syntax is used:</t>
+  </si>
+  <si>
+    <t>What is enum in C#? </t>
+  </si>
+  <si>
+    <t>An enum is a value type with a set of related named constants often referred to as an enumerator list. The enum keyword is used to declare an enumeration. It is a primitive data type that is user-defined.</t>
+  </si>
+  <si>
+    <t>What are sealed classes in C#?</t>
+  </si>
+  <si>
+    <t>Sealed classes are used to restrict the inheritance feature of object-oriented programming. Once a class is defined as a sealed class, the class cannot be inherited.</t>
+  </si>
+  <si>
+    <t>What are partial classes?</t>
+  </si>
+  <si>
+    <t>A partial class is only used to split the definition of a class in two or more classes in the same source code file or more than one source file. You can create a class definition in multiple files, but it will be compiled as one class at run time. Also, when you create an instance of this class, you can access all the methods from all source files with the same object.</t>
   </si>
 </sst>
 </file>
@@ -417,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="2" max="2" width="140.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,10 +433,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,12 +452,12 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -507,14 +501,6 @@
       </c>
       <c r="B10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Question/Languages/C#/C# _I.xlsx
+++ b/Question/Languages/C#/C# _I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A383B8ED-E61A-4A0B-918C-FEF3DE8E8A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CC075A-2A3F-40BD-BD4B-6FB68D9B3980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
